--- a/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.00991916362223</v>
+        <v>90.00573011932818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1103593006844747</v>
+        <v>0.1244475420163776</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.98983042233385</v>
+        <v>89.01125000220978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1299651972530118</v>
+        <v>0.1330125592594725</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.00525468851103</v>
+        <v>87.98757093692802</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1306522159375698</v>
+        <v>0.1281921079924181</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.01337945786217</v>
+        <v>86.98233712636997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.135644776995288</v>
+        <v>0.1259016104848207</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.00346434465361</v>
+        <v>86.00905055616531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1368855586532927</v>
+        <v>0.1519340469033905</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.99853233019951</v>
+        <v>85.03083821453816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1188386579763961</v>
+        <v>0.1149794393161765</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.9752225110322</v>
+        <v>84.0096680867706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1310073266243043</v>
+        <v>0.1349062159910294</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.00415046018288</v>
+        <v>83.00771140822737</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1145368447463886</v>
+        <v>0.123798846352315</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.01400141231488</v>
+        <v>82.00198407858869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1218991831088746</v>
+        <v>0.1381345922424139</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98918335104321</v>
+        <v>81.01752750252211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.125187808537395</v>
+        <v>0.1162143744872282</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99623692823243</v>
+        <v>80.01380895449761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1147242345666292</v>
+        <v>0.1204558218275054</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.99033292458289</v>
+        <v>78.98790298386137</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14346345039761</v>
+        <v>0.1347020860047358</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.00813441180283</v>
+        <v>78.00573796558609</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1350524885302338</v>
+        <v>0.1289093098508552</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.99654523184984</v>
+        <v>76.99563163111337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1268045439757655</v>
+        <v>0.1216855008964703</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.97251522146976</v>
+        <v>75.99661919843027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1327830782563409</v>
+        <v>0.1455622604302446</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.00225536672872</v>
+        <v>74.98374435949017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1279591188247259</v>
+        <v>0.11665335695592</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.99259385101334</v>
+        <v>73.99261094822238</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1251641719237649</v>
+        <v>0.1389575289474447</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.00023358105999</v>
+        <v>72.99520698310864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1213573532051771</v>
+        <v>0.1211165474046069</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.99046623880236</v>
+        <v>71.99983056944922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1235002722079506</v>
+        <v>0.1382360658918466</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.99628843523789</v>
+        <v>71.00356494061431</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1168551535125992</v>
+        <v>0.1346929962927577</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.9988091096741</v>
+        <v>69.98673305714533</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1271815576797579</v>
+        <v>0.125064877112802</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.00114385285319</v>
+        <v>69.00154333906298</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1116764182285448</v>
+        <v>0.1114747842712228</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97820565290797</v>
+        <v>67.97463335287945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1286855076464863</v>
+        <v>0.140669988429435</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.00295984805635</v>
+        <v>66.98738442913005</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1482964042055848</v>
+        <v>0.1212990649266997</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.00567524059683</v>
+        <v>65.99947019220464</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1277484463844258</v>
+        <v>0.1428041760431016</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.99458715085572</v>
+        <v>64.97923426052131</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1309711581990502</v>
+        <v>0.1311536195057168</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.01156231330222</v>
+        <v>64.01989962345256</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1352171001107889</v>
+        <v>0.1312093376156014</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.99637381308178</v>
+        <v>63.01315310050028</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120264276393817</v>
+        <v>0.132263450229592</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.00409567664515</v>
+        <v>61.99913677344415</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1283034917556636</v>
+        <v>0.1476597536224707</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.00056990440495</v>
+        <v>61.02659070208799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1250198310208953</v>
+        <v>0.1290499051771085</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02348222527193</v>
+        <v>60.0038878308406</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1130005814191864</v>
+        <v>0.1324510691101604</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.98889590042171</v>
+        <v>59.00826733804088</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1180849421581441</v>
+        <v>0.1262038474502902</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.00340254297384</v>
+        <v>57.98069126008173</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1375563642004186</v>
+        <v>0.1415514562380776</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.01318605435375</v>
+        <v>57.00287993755307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1330403443500857</v>
+        <v>0.1063685109445311</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.9952689138377</v>
+        <v>56.01959564959049</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1236965642329161</v>
+        <v>0.1217944155039723</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.98582074416793</v>
+        <v>55.00659201693932</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1295689070579696</v>
+        <v>0.1186620992470453</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.98734271623392</v>
+        <v>54.00133157764689</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1128505434963745</v>
+        <v>0.1172045101606912</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.00821577143939</v>
+        <v>52.99960227238856</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1360859568084707</v>
+        <v>0.1226498861052975</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.00037758677899</v>
+        <v>51.98095452910648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.129327596350044</v>
+        <v>0.1132196925473799</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.0116816103701</v>
+        <v>51.01678798325452</v>
       </c>
       <c r="D41" t="n">
-        <v>0.125253848883886</v>
+        <v>0.143229374476393</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.01611913442292</v>
+        <v>49.99942192211481</v>
       </c>
       <c r="D42" t="n">
-        <v>0.135227426709621</v>
+        <v>0.1270914521407055</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.98315691042534</v>
+        <v>49.00777443285466</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1135229878176661</v>
+        <v>0.1103779568997778</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.00379425104134</v>
+        <v>48.02071705604098</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1371793998455716</v>
+        <v>0.1261273303909111</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.98159284533736</v>
+        <v>47.0136161610565</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1185307211338165</v>
+        <v>0.1170990433500272</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.99640168916883</v>
+        <v>45.99667612215047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1340543217879358</v>
+        <v>0.1344560995911272</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.0095496077699</v>
+        <v>45.00837025429573</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1160140805252159</v>
+        <v>0.1373128172188336</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.99330152451971</v>
+        <v>43.98564259932951</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1324692237864867</v>
+        <v>0.1292181216569691</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99527819394792</v>
+        <v>42.97593238386081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1302503862964375</v>
+        <v>0.1169268929679258</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.99502925615895</v>
+        <v>42.00739465286957</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1293378742766957</v>
+        <v>0.1322507912049946</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.99626407459061</v>
+        <v>40.98636255436629</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1347788740657832</v>
+        <v>0.1147920698340509</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.02800710538018</v>
+        <v>40.00943033001101</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1290471969432389</v>
+        <v>0.1264206525192256</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.00185685431059</v>
+        <v>38.99115769032022</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1229055172895341</v>
+        <v>0.1186618948485931</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99304208917558</v>
+        <v>37.99405700368781</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1098381318555933</v>
+        <v>0.1325702121734459</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.975902499519</v>
+        <v>36.9864181054834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1276003842943605</v>
+        <v>0.135661498864256</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.00641116124594</v>
+        <v>36.01297275005521</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1233295731628123</v>
+        <v>0.1229191590658884</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.01830706261956</v>
+        <v>35.0025783721621</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1240524517873608</v>
+        <v>0.1378330995030497</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.97205980410358</v>
+        <v>33.99632960253529</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1217704556392622</v>
+        <v>0.1361783300172654</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98355800711924</v>
+        <v>33.00097087558914</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1294100930446647</v>
+        <v>0.1165537874704271</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.00029135593</v>
+        <v>32.00867430504011</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1281171271642111</v>
+        <v>0.1128657883776747</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.98207955123758</v>
+        <v>30.98437387408844</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1110757979528411</v>
+        <v>0.1199996604370206</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.97416126799113</v>
+        <v>29.99037607770492</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1216514331032459</v>
+        <v>0.1258021624709812</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.00939894150562</v>
+        <v>29.00625163067304</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1250614794534359</v>
+        <v>0.1082561691299993</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.00596005655023</v>
+        <v>27.9813466374394</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1236845751119251</v>
+        <v>0.09833521960418501</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.00788313255784</v>
+        <v>26.97554393193715</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1293902284246758</v>
+        <v>0.1176361165880474</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01416065866083</v>
+        <v>25.98540529726124</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1149400275583558</v>
+        <v>0.1282715057472553</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.99697062901144</v>
+        <v>25.01251529798993</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1043850262703686</v>
+        <v>0.1200209315689313</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.99226368432744</v>
+        <v>24.01209437968043</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1189807338193726</v>
+        <v>0.1243283144710684</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.98981922094103</v>
+        <v>23.00459227504782</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1216800355659954</v>
+        <v>0.1154558196948389</v>
       </c>
     </row>
   </sheetData>
